--- a/work/V1.2_新增字段.xlsx
+++ b/work/V1.2_新增字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C18E4D-380C-4411-B1FB-C3CC090B867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778EDDE9-1866-42BF-AEDE-D1A42C963487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5842,7 +5842,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5927,6 +5927,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -5964,7 +5970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6003,11 +6009,13 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7150,8 +7158,8 @@
   <dimension ref="A1:E662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C307" sqref="C307"/>
+      <pane ySplit="1" topLeftCell="A632" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C645" sqref="C645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9095,11 +9103,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="35" t="s">
+    <row r="184" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="35" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -11086,7 +11094,7 @@
       <c r="B380" t="s">
         <v>695</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="4" t="s">
         <v>698</v>
       </c>
       <c r="D380" t="s">
@@ -11158,7 +11166,7 @@
       <c r="B386" t="s">
         <v>705</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="4" t="s">
         <v>700</v>
       </c>
       <c r="D386" t="s">
@@ -13971,7 +13979,7 @@
       <c r="B654" t="s">
         <v>1042</v>
       </c>
-      <c r="C654" s="33" t="s">
+      <c r="C654" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -13979,7 +13987,7 @@
       <c r="B655" t="s">
         <v>1043</v>
       </c>
-      <c r="C655" s="33" t="s">
+      <c r="C655" s="37" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -13995,7 +14003,7 @@
       <c r="B657" t="s">
         <v>1045</v>
       </c>
-      <c r="C657" s="33" t="s">
+      <c r="C657" s="37" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -14776,10 +14784,10 @@
       <c r="D15" t="s">
         <v>548</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
